--- a/Documentation/Linked Historians QA Manual Test.xlsx
+++ b/Documentation/Linked Historians QA Manual Test.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t xml:space="preserve">LINKED HISTORIANS</t>
   </si>
   <si>
-    <t xml:space="preserve">Quality Assuarence</t>
+    <t xml:space="preserve">Quality Assurance</t>
   </si>
   <si>
     <t xml:space="preserve">Projects</t>
@@ -82,12 +82,6 @@
     <t xml:space="preserve">Allows users to see all events inside the local database.</t>
   </si>
   <si>
-    <t xml:space="preserve">bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires multiple inputs of ENTER to proceed toward the event menu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Back to login</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">Allows users to see details about the event. Requires the name of the event as an input.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires multiple inputs of ENTER to return to the event menu.</t>
   </si>
   <si>
     <t xml:space="preserve">Sort events</t>
@@ -485,7 +476,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +548,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -591,7 +582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -599,18 +590,15 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -619,44 +607,41 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -665,38 +650,38 @@
     </row>
     <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -705,10 +690,10 @@
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -717,24 +702,24 @@
     </row>
     <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>10</v>
@@ -743,10 +728,10 @@
     </row>
     <row r="22" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
